--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.6.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,20 +13,22 @@
     <sheet name="Shelf Length " sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Blocking" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Blocking-Presence" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Adjacency" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Max Block Adjacency-Anchor" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Anchor" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Count of " sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Anchor" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Count of " sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Adjacency" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Max Block Adjacency" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Result" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="135">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -121,7 +123,7 @@
     <t xml:space="preserve">In the MSL for Yogurt, which of the following is adjacent to the Greek Segment?</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Block Adjacency-Anchor</t>
+    <t xml:space="preserve">Max Block Adjacency</t>
   </si>
   <si>
     <t xml:space="preserve">In the MSL for Yogurt, which of the following is adj to the Mainstream Family Favorites Segment?</t>
@@ -214,9 +216,6 @@
     <t xml:space="preserve">TTL REFRIG YOG &amp; YOG BEV</t>
   </si>
   <si>
-    <t xml:space="preserve">Count of Shelves </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
@@ -280,70 +279,127 @@
     <t xml:space="preserve">Not in MSL for Yogurt</t>
   </si>
   <si>
+    <t xml:space="preserve">Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS KID, TTL VS PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
     <t xml:space="preserve">Param 2</t>
   </si>
   <si>
     <t xml:space="preserve">Value 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Param 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS KID, TTL VS ORGANIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMI_Brand</t>
+    <t xml:space="preserve">Counted Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_SUBBRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRD LARGE SIZE, GRK LARGE SIZE, ASH TRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Param 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Param 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude Value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Param 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Value 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_BRAND</t>
   </si>
   <si>
     <t xml:space="preserve">STONYFIELD</t>
   </si>
   <si>
-    <t xml:space="preserve">GMI_Sub Category</t>
+    <t xml:space="preserve">GMI_SUBCATEGORY</t>
   </si>
   <si>
     <t xml:space="preserve">KID</t>
   </si>
   <si>
-    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+    <t xml:space="preserve">left, right, up, down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
   </si>
   <si>
     <t xml:space="preserve">Max Adjacency </t>
   </si>
   <si>
-    <t xml:space="preserve">Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS KID, TTL VS PROBIOTICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anchor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counted Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMI_SUBBRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRD LARGE SIZE, GRK LARGE SIZE, ASH TRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Serve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPK</t>
+    <t xml:space="preserve">left, right, top, bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS PROBIOTICS, TTL VS ORGANIC, TTL VS NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GREEK X SF, TTL VS FAM FAV X SF, TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE, TTL VS KID, TTL VS ADULT SNACKING, TTL VS PROBIOTICS, TTL VS ORGANIC</t>
   </si>
   <si>
     <t xml:space="preserve">Result Key</t>
@@ -443,7 +499,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,11 +515,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -476,13 +538,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -552,10 +607,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,8 +619,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -588,7 +643,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -656,20 +711,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.5506072874494"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -709,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -726,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -743,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -760,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -777,7 +832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -794,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -811,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -828,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -845,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -862,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -879,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -896,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
@@ -913,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -930,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
@@ -947,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -964,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
@@ -981,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
@@ -998,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1100,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1117,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1134,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1151,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1168,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1185,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1202,7 +1257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1236,7 +1291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>51</v>
       </c>
@@ -1308,154 +1363,154 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="134.327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="137.967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>108</v>
+      <c r="B3" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>110</v>
+      <c r="B4" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>98</v>
+      <c r="B9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1480,16 +1535,16 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1569,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1539,16 +1594,16 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1559,16 +1614,16 @@
         <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1610,15 +1665,15 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1632,119 +1687,119 @@
         <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1765,21 +1820,21 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4048582995951"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1793,41 +1848,41 @@
         <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1846,26 +1901,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1876,45 +1926,44 @@
         <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1933,22 +1982,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.368421052632"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1959,120 +2009,260 @@
         <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>90</v>
+      <c r="F12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2091,69 +2281,115 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2172,19 +2408,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2193,269 +2430,235 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>111</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.6.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,14 +21,17 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="jj" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_jj" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -282,7 +285,7 @@
     <t xml:space="preserve">Edges</t>
   </si>
   <si>
-    <t xml:space="preserve">TTL VS KID, TTL VS PROBIOTICS</t>
+    <t xml:space="preserve">TTL VS GREEK X SF,TTL VS FAM FAV X SF,TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE,TTL VS KID,TTL VS ADULT SNACKING,TTL VS PROBIOTICS,TTL VS ORGANIC,TTL VS NON-DAIRY</t>
   </si>
   <si>
     <t xml:space="preserve">right</t>
@@ -429,6 +432,9 @@
     <t xml:space="preserve">STOCKED ADJACENT TO KID, STOCKED ADJACENT TO ADULT ORGANIC, STOCKED ADJACENT TO BOTH, NOT ADJACENT TO EITHER, NO DISTRIBUTION</t>
   </si>
   <si>
+    <t xml:space="preserve">TTL VS FAM FAV X SF,TTL VS SIMPLY BETTER HEALTH,TTL VS SIMPLY BETTER TASTE,TTL VS KID,TTL VS ADULT SNACKING,TTL VS PROBIOTICS,TTL VS ORGANIC,TTL VS NON-DAIRY,END OF CATEGORY,TTL VS GREEK X SF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horizontal Block, Vertical Block, Not Blocked</t>
   </si>
   <si>
@@ -436,9 +442,6 @@
   </si>
   <si>
     <t xml:space="preserve">Blocked,Not Blocked,Not in MSL for Yogurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEK,FAMILY FAVORITES,SIMPLY BETTER,KID,ADULT SNACKING FORMS,PROBIOITICS,ORGANIC,NON-DAIRY,END OF CATEGORY</t>
   </si>
   <si>
     <t xml:space="preserve">1, 2, 3, 4, 5, 6, 7 or More</t>
@@ -615,11 +618,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -716,11 +719,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.5506072874494"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -951,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
@@ -968,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -985,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>29</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
@@ -1362,14 +1365,14 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="137.967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="142.894736842105"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1429,17 +1432,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1448,7 +1451,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>127</v>
@@ -1457,12 +1460,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>127</v>
@@ -1471,12 +1474,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>127</v>
@@ -1485,12 +1488,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>132</v>
+      <c r="B9" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>127</v>
@@ -1537,10 +1540,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1596,9 +1599,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -1662,14 +1665,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1826,11 +1829,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.7327935222672"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1904,14 +1907,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1932,14 +1935,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -1949,14 +1952,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1990,10 +1993,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -2283,28 +2286,28 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.6599190283401"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2410,22 +2413,22 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.3724696356275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
